--- a/data/database/Power_VRESProfiles.xlsx
+++ b/data/database/Power_VRESProfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08672167-DBC6-48DB-9B1A-6CD1AD638A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957DF35-4F00-4EED-86D4-1F02C64A5D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="108" r:id="rId1"/>
@@ -224,10 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="67">
-  <si>
-    <t>[p.u.]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="69">
   <si>
     <t>Wind</t>
   </si>
@@ -340,9 +337,6 @@
     <t>Power - Variable Renewable Energy Sources Profiles</t>
   </si>
   <si>
-    <t xml:space="preserve"> Variable Renewable Energy Sources Profiles for representative periods</t>
-  </si>
-  <si>
     <t>Format:</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -425,6 +416,21 @@
   </si>
   <si>
     <t>TestSource1</t>
+  </si>
+  <si>
+    <t>[%, 0-1]</t>
+  </si>
+  <si>
+    <t>Which data package this belongs to</t>
+  </si>
+  <si>
+    <t>Technology of the capacity factor</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacityfactor for each VRES of this technology at this node </t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -662,6 +668,9 @@
     <xf numFmtId="2" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1015,131 +1024,131 @@
   <sheetData>
     <row r="1" spans="2:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1167,22 +1176,26 @@
     </row>
     <row r="5" spans="2:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -1209,202 +1222,202 @@
     </row>
     <row r="6" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="17">
         <v>0.30109999999999998</v>
@@ -1482,19 +1495,19 @@
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="17">
         <v>0.11269999999999999</v>
@@ -1572,19 +1585,19 @@
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="17">
         <v>0.1482</v>
@@ -1662,19 +1675,19 @@
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="17">
         <v>0.54010000000000002</v>
@@ -1752,19 +1765,19 @@
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="17">
         <v>0.32819999999999999</v>
@@ -1842,19 +1855,19 @@
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="17">
         <v>0.53210000000000002</v>
@@ -1932,19 +1945,19 @@
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="17">
         <v>0.68200000000000005</v>
@@ -2022,19 +2035,19 @@
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
@@ -2112,19 +2125,19 @@
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -2202,19 +2215,19 @@
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" s="17">
         <v>0</v>
@@ -2292,19 +2305,19 @@
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
@@ -2382,19 +2395,19 @@
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="17">
         <v>0</v>
@@ -2472,19 +2485,19 @@
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -2562,19 +2575,19 @@
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -2652,19 +2665,19 @@
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -2742,19 +2755,19 @@
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2832,19 +2845,19 @@
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="17">
         <v>0</v>
@@ -2922,19 +2935,19 @@
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="17">
         <v>0</v>
@@ -3012,19 +3025,19 @@
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
@@ -3102,19 +3115,19 @@
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
@@ -3192,19 +3205,19 @@
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="17">
         <v>0</v>
@@ -3942,8 +3955,8 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -3962,131 +3975,131 @@
   <sheetData>
     <row r="1" spans="2:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -4114,22 +4127,26 @@
     </row>
     <row r="5" spans="2:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -4156,202 +4173,202 @@
     </row>
     <row r="6" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="17">
         <v>0.31437570523921676</v>
@@ -4429,19 +4446,19 @@
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="17">
         <v>0.11561377887975706</v>
@@ -4519,19 +4536,19 @@
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="17">
         <v>0.15377495799489935</v>
@@ -4609,19 +4626,19 @@
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="17">
         <v>0.56507871238146146</v>
@@ -4699,19 +4716,19 @@
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="17">
         <v>0.33985457996717267</v>
@@ -4789,19 +4806,19 @@
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="17">
         <v>0.52040966554709855</v>
@@ -4879,19 +4896,19 @@
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="17">
         <v>0.66510550880002151</v>
@@ -4969,19 +4986,19 @@
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
@@ -5059,19 +5076,19 @@
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -5149,19 +5166,19 @@
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" s="17">
         <v>0</v>
@@ -5239,19 +5256,19 @@
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
@@ -5329,19 +5346,19 @@
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="17">
         <v>0</v>
@@ -5419,19 +5436,19 @@
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -5509,19 +5526,19 @@
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -5599,19 +5616,19 @@
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -5689,19 +5706,19 @@
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -5779,19 +5796,19 @@
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="17">
         <v>0</v>
@@ -5869,19 +5886,19 @@
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="17">
         <v>0</v>
@@ -5959,19 +5976,19 @@
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
@@ -6049,19 +6066,19 @@
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
@@ -6139,19 +6156,19 @@
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="17">
         <v>0</v>
@@ -6880,15 +6897,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -7034,6 +7042,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7041,14 +7058,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7062,6 +7071,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
